--- a/data/TG_TUMI.CN V1.0.0.0-V1.7.0.0 Testcase 2021-2-1-UAT.xlsx
+++ b/data/TG_TUMI.CN V1.0.0.0-V1.7.0.0 Testcase 2021-2-1-UAT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huang\Desktop\TUMI-UAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\huang111\tumi-cn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EF0C30-A7E8-4293-8770-B04D713BDA3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646F9186-6A1D-4A19-A016-863EE2A00183}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="15" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4492" uniqueCount="1488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4490" uniqueCount="1488">
   <si>
     <t>TUMI.CN UAT Plan</t>
   </si>
@@ -8626,8 +8626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H251"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G251" sqref="G251"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.149999999999999" customHeight="1"/>
@@ -9358,9 +9358,7 @@
       <c r="G36" s="33" t="s">
         <v>1462</v>
       </c>
-      <c r="H36" s="71" t="s">
-        <v>1460</v>
-      </c>
+      <c r="H36" s="71"/>
     </row>
     <row r="37" spans="1:8" ht="19.149999999999999" customHeight="1">
       <c r="A37" s="33" t="s">
@@ -9488,9 +9486,7 @@
       <c r="G42" s="33" t="s">
         <v>1462</v>
       </c>
-      <c r="H42" s="71" t="s">
-        <v>1460</v>
-      </c>
+      <c r="H42" s="71"/>
     </row>
     <row r="43" spans="1:8" ht="18.75" customHeight="1">
       <c r="A43" s="33" t="s">
@@ -20316,7 +20312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>

--- a/data/TG_TUMI.CN V1.0.0.0-V1.7.0.0 Testcase 2021-2-1-UAT.xlsx
+++ b/data/TG_TUMI.CN V1.0.0.0-V1.7.0.0 Testcase 2021-2-1-UAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\huang111\tumi-cn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646F9186-6A1D-4A19-A016-863EE2A00183}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5138FF68-30C7-4FBA-82A6-CC3F6CB20E6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8626,8 +8626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121:A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.149999999999999" customHeight="1"/>
